--- a/ContinuousGeneralisation_Data/top10nl_9x9_datasets/top10nl_9x9_konrad/TypeDistance.xlsx
+++ b/ContinuousGeneralisation_Data/top10nl_9x9_datasets/top10nl_9x9_konrad/TypeDistance.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CEB1A6-1FA7-411A-8297-85E47781F521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\Research\Programs\ContinuousGeneralisation\ContinuousGeneralisation_Data\top10nl_9x9_datasets\top10nl_9x9_konrad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB26BE5-A02D-428D-853B-3679EC1089BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -373,13 +376,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="AH35" sqref="AH35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>10310</v>
       </c>
@@ -480,51 +486,51 @@
         <v>14180</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10310</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -584,51 +590,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10311</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -688,51 +694,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10410</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -792,51 +798,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10411</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -896,51 +902,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10510</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1000,51 +1006,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10600</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1104,51 +1110,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10700</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1208,51 +1214,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10710</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1312,51 +1318,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10720</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1416,51 +1422,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10730</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1520,51 +1526,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10740</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1624,51 +1630,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10750</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1728,51 +1734,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10760</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1832,51 +1838,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10780</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1936,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12400</v>
       </c>
@@ -1983,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12500</v>
       </c>
@@ -2087,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2144,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13000</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2248,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14010</v>
       </c>
@@ -2304,55 +2310,55 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14030</v>
       </c>
@@ -2408,55 +2414,55 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14040</v>
       </c>
@@ -2512,55 +2518,55 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14050</v>
       </c>
@@ -2616,55 +2622,55 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH22">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14060</v>
       </c>
@@ -2720,55 +2726,55 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH23">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14070</v>
       </c>
@@ -2824,55 +2830,55 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14080</v>
       </c>
@@ -2928,55 +2934,55 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14090</v>
       </c>
@@ -3032,55 +3038,55 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14100</v>
       </c>
@@ -3136,55 +3142,55 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14120</v>
       </c>
@@ -3240,55 +3246,55 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14130</v>
       </c>
@@ -3344,55 +3350,55 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14140</v>
       </c>
@@ -3448,55 +3454,55 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14160</v>
       </c>
@@ -3552,55 +3558,55 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH31">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14162</v>
       </c>
@@ -3656,55 +3662,55 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14170</v>
       </c>
@@ -3760,55 +3766,55 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14180</v>
       </c>
@@ -3864,52 +3870,3603 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A76C9D-C967-4DAB-96A8-25D387E8F009}">
+  <dimension ref="A1:AH34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>10310</v>
+      </c>
+      <c r="C1">
+        <v>10311</v>
+      </c>
+      <c r="D1">
+        <v>10410</v>
+      </c>
+      <c r="E1">
+        <v>10411</v>
+      </c>
+      <c r="F1">
+        <v>10510</v>
+      </c>
+      <c r="G1">
+        <v>10600</v>
+      </c>
+      <c r="H1">
+        <v>10700</v>
+      </c>
+      <c r="I1">
+        <v>10710</v>
+      </c>
+      <c r="J1">
+        <v>10720</v>
+      </c>
+      <c r="K1">
+        <v>10730</v>
+      </c>
+      <c r="L1">
+        <v>10740</v>
+      </c>
+      <c r="M1">
+        <v>10750</v>
+      </c>
+      <c r="N1">
+        <v>10760</v>
+      </c>
+      <c r="O1">
+        <v>10780</v>
+      </c>
+      <c r="P1">
+        <v>12400</v>
+      </c>
+      <c r="Q1">
+        <v>12500</v>
+      </c>
+      <c r="R1">
+        <v>13000</v>
+      </c>
+      <c r="S1">
+        <v>14010</v>
+      </c>
+      <c r="T1">
+        <v>14030</v>
+      </c>
+      <c r="U1">
+        <v>14040</v>
+      </c>
+      <c r="V1">
+        <v>14050</v>
+      </c>
+      <c r="W1">
+        <v>14060</v>
+      </c>
+      <c r="X1">
+        <v>14070</v>
+      </c>
+      <c r="Y1">
+        <v>14080</v>
+      </c>
+      <c r="Z1">
+        <v>14090</v>
+      </c>
+      <c r="AA1">
+        <v>14100</v>
+      </c>
+      <c r="AB1">
+        <v>14120</v>
+      </c>
+      <c r="AC1">
+        <v>14130</v>
+      </c>
+      <c r="AD1">
+        <v>14140</v>
+      </c>
+      <c r="AE1">
+        <v>14160</v>
+      </c>
+      <c r="AF1">
+        <v>14162</v>
+      </c>
+      <c r="AG1">
+        <v>14170</v>
+      </c>
+      <c r="AH1">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10310</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <v>6</v>
+      </c>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10311</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10410</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <v>6</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10411</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10510</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10600</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>6</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+      <c r="AF7">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10700</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>6</v>
+      </c>
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10710</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10720</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>6</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>6</v>
+      </c>
+      <c r="AH10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10730</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>6</v>
+      </c>
+      <c r="AH11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10740</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10750</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AH13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10760</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>6</v>
+      </c>
+      <c r="AG14">
+        <v>6</v>
+      </c>
+      <c r="AH14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10780</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12400</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>6</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+      <c r="AD16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>6</v>
+      </c>
+      <c r="AG16">
+        <v>6</v>
+      </c>
+      <c r="AH16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12500</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+      <c r="AD17">
+        <v>6</v>
+      </c>
+      <c r="AE17">
+        <v>6</v>
+      </c>
+      <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>6</v>
+      </c>
+      <c r="AH17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13000</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>6</v>
+      </c>
+      <c r="AE18">
+        <v>6</v>
+      </c>
+      <c r="AF18">
+        <v>6</v>
+      </c>
+      <c r="AG18">
+        <v>6</v>
+      </c>
+      <c r="AH18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14010</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14030</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14040</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14050</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14060</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AH23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14070</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14080</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14090</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <v>2</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14100</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14120</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28">
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14130</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14140</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14160</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14162</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14170</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14180</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
+      <c r="AE34">
+        <v>2</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
